--- a/Dataset/Folds/Fold_3/Excel/38.xlsx
+++ b/Dataset/Folds/Fold_3/Excel/38.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5128" uniqueCount="751">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5800" uniqueCount="846">
   <si>
     <t>Doi</t>
   </si>
@@ -2384,6 +2384,366 @@
   </si>
   <si>
     <t>[K. Aparna%Sharma%NULL%1,                            Rajesh%Kumari%NULL%1,                            Garima%Kachhawa%NULL%1,                            Anjolie%Chhabra%NULL%1,                            Ramesh%Agarwal%NULL%1,                            Akash%Sharma%NULL%1,                            Sunesh%Kumar%NULL%1,                            Neerja%Bhatla%neerja.bhatla07@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Noelle%Breslin%nb2565@cumc.columbia.edu%0,                             Caitlin%Baptiste%NULL%1,                             Cynthia%Gyamfi-Bannerman%NULL%1,                             Russell%Miller%NULL%1,                             Rebecca%Martinez%NULL%1,                             Kyra%Bernstein%NULL%1,                             Laurence%Ring%NULL%1,                             Ruth%Landau%NULL%1,                             Stephanie%Purisch%NULL%1,                             Alexander M.%Friedman%NULL%1,                             Karin%Fuchs%NULL%1,                             Desmond%Sutton%NULL%1,                             Maria%Andrikopoulou%NULL%1,                             Devon%Rupley%NULL%1,                             Jean-Ju%Sheen%NULL%1,                             Janice%Aubey%NULL%1,                             Noelia%Zork%NULL%1,                             Leslie%Moroz%NULL%1,                             Mirella%Mourad%NULL%1,                             Ronald%Wapner%NULL%1,                             Lynn L.%Simpson%NULL%1,                             Mary E.%D’Alton%NULL%1,                             Dena%Goffman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alexander%Juusela%alex.l.juusela@gmail.com%1,                             Munir%Nazir%NULL%1,                             Martin%Gimovsky%NULL%1]</t>
+  </si>
+  <si>
+    <t>[William S.%Vintzileos%NULL%1,                             Jolene%Muscat%NULL%2,                             Jolene%Muscat%NULL%0,                             Eva%Hoffmann%NULL%1,                             Nicole S.%John%NULL%1,                             Rosanne%Vertichio%NULL%1,                             Anthony M.%Vintzileos%NULL%1,                             Duc%Vo%NULL%2,                             Duc%Vo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[William T.%Schnettler%william_schnettler@trihealth.com%2,                             Yousef%Al Ahwel%NULL%1,                             Anju%Suhag%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sara N.%Iqbal%NULL%2,                             Rachael%Overcash%NULL%2,                             Neggin%Mokhtari%NULL%2,                             Haleema%Saeed%NULL%2,                             Stacey%Gold%NULL%2,                             Tamika%Auguste%NULL%2,                             Muhammad-Usman%Mirza%NULL%2,                             Maria-Elena%Ruiz%NULL%2,                             Joeffrey J.%Chahine%NULL%4,                             Joeffrey J.%Chahine%NULL%0,                             Masashi%Waga%NULL%4,                             Masashi%Waga%NULL%0,                             Glenn%Wortmann%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Paul C.%Browne%NULL%1,                             Jennifer B.%Linfert%NULL%1,                             Emilio%Perez-Jorge%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jie%Yan%NULL%0,                             Juanjuan%Guo%NULL%2,                             Cuifang%Fan%NULL%1,                             Juan%Juan%NULL%1,                             Xuechen%Yu%NULL%2,                             Jiafu%Li%NULL%2,                             Ling%Feng%NULL%1,                             Chunyan%Li%NULL%1,                             Huijun%Chen%NULL%1,                             Yuan%Qiao%NULL%1,                             Di%Lei%NULL%1,                             Chen%Wang%NULL%3,                             Guoping%Xiong%NULL%1,                             Fengyi%Xiao%NULL%1,                             Wencong%He%NULL%1,                             Qiumei%Pang%NULL%3,                             Xiaoling%Hu%NULL%1,                             Suqing%Wang%NULL%1,                             Dunjin%Chen%NULL%1,                             Yuanzhen%Zhang%NULL%2,                             Liona C.%Poon%NULL%1,                             Huixia%Yang%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Xiaotong%Wang%NULL%3,                             Zhiqiang%Zhou%NULL%1,                             Jianping%Zhang%NULL%1,                             Fengfeng%Zhu%NULL%1,                             Yongyan%Tang%NULL%1,                             Xinghua%Shen%luckydrx@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Rong%Wen%wenxueqian_1111@163.com%1,                             Yue%Sun%101799@qdfe.com%1,                             Quan-Sheng%Xing%xingquansheng@qdfe.com%1]</t>
+  </si>
+  <si>
+    <t>[Xinggui%Liao%NULL%1,                             Huan%Yang%NULL%1,                             Junfeng%Kong%NULL%2,                             Junfeng%Kong%NULL%0,                             Hongbing%Yang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Liusheng%Hou%NULL%1,                             Mingxing%Li%NULL%1,                             Kai%Guo%NULL%1,                             Weijia%Wang%NULL%1,                             Binfei%Li%NULL%1,                             Jianwei%Li%NULL%2,                             Yong%Yuan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiali%Xiong%NULL%2,                             Hong%Wei%NULL%2,                             Hong%Wei%NULL%0,                             Zhihong%Zhang%NULL%1,                             Jing%Chang%NULL%1,                             Xiaopeng%Ma%NULL%1,                             Xiang%Gao%NULL%1,                             Qiang%Chen%qiangchen2015@sina.com%1,                             Qiumei%Pang%pqm19650930@sina.com%0,                             Qiumei%Pang%pqm19650930@sina.com%0]</t>
+  </si>
+  <si>
+    <t>[Zhoujie%Peng%NULL%2,                             Jianhui%Wang%NULL%1,                             Yunbo%Mo%NULL%1,                             Wei%Duan%NULL%1,                             Guangjun%Xiang%NULL%1,                             Ming%Yi%NULL%1,                             Lei%Bao%NULL%1,                             Yuan%Shi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Dawei%Lu%NULL%2,                             Lin%Sang%NULL%1,                             Shihua%Du%NULL%1,                             Tao%Li%NULL%2,                             Yange%Chang%NULL%1,                             Xiu‐An%Yang%yangxiuan07@mails.ucas.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Enrico M.%Ferrazzi%enrico.ferrazzi@unimi.it%0,                             Luigi%Frigerio%NULL%1,                             Irene%Cetin%NULL%1,                             Patrizia%Vergani%NULL%1,                             Arsenio%Spinillo%NULL%1,                             Federico%Prefumo%NULL%1,                             Edda%Pellegrini%NULL%1,                             Gianluigi%Gargantini%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Evangelia%Vlachodimitropoulou Koumoutsea%NULL%1,                             Alexandre J.%Vivanti%NULL%1,                             Nadine%Shehata%NULL%1,                             Alexandra%Benachi%NULL%1,                             Agnes%Le Gouez%NULL%1,                             Celine%Desconclois%NULL%1,                             Wendy%Whittle%NULL%1,                             John%Snelgrove%NULL%1,                             Ann Kinga%Malinowski%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lysien I.%Zambrano%NULL%1,                             Itzel Carolina%Fuentes-Barahona%NULL%2,                             Itzel Carolina%Fuentes-Barahona%NULL%0,                             Daysi Anabell%Bejarano-Torres%NULL%1,                             Carolina%Bustillo%NULL%2,                             Gloria%Gonzales%NULL%1,                             Gissela%Vallecillo-Chinchilla%NULL%1,                             Fredal Eduardo%Sanchez-Martínez%NULL%2,                             Fredal Eduardo%Sanchez-Martínez%NULL%0,                             Jorge Alberto%Valle-Reconco%NULL%1,                             Manuel%Sierra%NULL%2,                             Manuel%Sierra%NULL%0,                             D. Katterine%Bonilla-Aldana%NULL%2,                             D. Katterine%Bonilla-Aldana%NULL%0,                             Jaime A.%Cardona-Ospina%NULL%2,                             Jaime A.%Cardona-Ospina%NULL%0,                             Alfonso J.%Rodríguez-Morales%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Dong Hwan%Lee%NULL%4,                             Jihyang%Lee%NULL%6,                             Jihyang%Lee%NULL%0,                             Eunju%Kim%NULL%6,                             Eunju%Kim%NULL%0,                             Kyeongyoon%Woo%NULL%6,                             Kyeongyoon%Woo%NULL%0,                             Hak Youle%Park%NULL%6,                             Hak Youle%Park%NULL%0,                             Jihyun%An%NULL%6,                             Jihyun%An%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Parisa%Karami%NULL%1,                             Maliheh%Naghavi%NULL%1,                             Abdolamir%Feyzi%NULL%1,                             Mehdi%Aghamohammadi%NULL%1,                             Mohammad Sadegh%Novin%NULL%1,                             Ahmadreza%Mobaien%NULL%1,                             Mohamad%Qorbanisani%NULL%1,                             Aida%Karami%NULL%1,                             Amir Hossein%Norooznezhad%norooznezhad@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Belinda%Lowe%Belinda.lowe2@health.qld.gov.au%1,                             Benjamin%Bopp%NULL%2,                             Benjamin%Bopp%NULL%0]</t>
+  </si>
+  <si>
+    <t>[D.%González Romero%NULL%1,                             J.%Ocampo Pérez%NULL%1,                             L.%González Bautista%NULL%1,                             L.%Santana-Cabrera%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Maria Claudia%Alzamora%NULL%3,                             Tania%Paredes%NULL%4,                             Tania%Paredes%NULL%0,                             David%Caceres%NULL%2,                             Camille M.%Webb%NULL%2,                             Luis M.%Valdez%NULL%2,                             Mauricio%La Rosa%NULL%2]</t>
+  </si>
+  <si>
+    <t>[K. Aparna%Sharma%NULL%1,                             Rajesh%Kumari%NULL%1,                             Garima%Kachhawa%NULL%1,                             Anjolie%Chhabra%NULL%1,                             Ramesh%Agarwal%NULL%1,                             Akash%Sharma%NULL%1,                             Sunesh%Kumar%NULL%1,                             Neerja%Bhatla%neerja.bhatla07@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Noelle%Breslin%nb2565@cumc.columbia.edu%0,                              Caitlin%Baptiste%NULL%1,                              Cynthia%Gyamfi-Bannerman%NULL%1,                              Russell%Miller%NULL%1,                              Rebecca%Martinez%NULL%1,                              Kyra%Bernstein%NULL%1,                              Laurence%Ring%NULL%1,                              Ruth%Landau%NULL%1,                              Stephanie%Purisch%NULL%1,                              Alexander M.%Friedman%NULL%1,                              Karin%Fuchs%NULL%1,                              Desmond%Sutton%NULL%1,                              Maria%Andrikopoulou%NULL%1,                              Devon%Rupley%NULL%1,                              Jean-Ju%Sheen%NULL%1,                              Janice%Aubey%NULL%1,                              Noelia%Zork%NULL%1,                              Leslie%Moroz%NULL%1,                              Mirella%Mourad%NULL%1,                              Ronald%Wapner%NULL%1,                              Lynn L.%Simpson%NULL%1,                              Mary E.%D’Alton%NULL%1,                              Dena%Goffman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alexander%Juusela%alex.l.juusela@gmail.com%1,                              Munir%Nazir%NULL%1,                              Martin%Gimovsky%NULL%1]</t>
+  </si>
+  <si>
+    <t>[William S.%Vintzileos%NULL%1,                              Jolene%Muscat%NULL%2,                              Jolene%Muscat%NULL%0,                              Eva%Hoffmann%NULL%1,                              Nicole S.%John%NULL%1,                              Rosanne%Vertichio%NULL%1,                              Anthony M.%Vintzileos%NULL%1,                              Duc%Vo%NULL%2,                              Duc%Vo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[William T.%Schnettler%william_schnettler@trihealth.com%2,                              Yousef%Al Ahwel%NULL%1,                              Anju%Suhag%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sara N.%Iqbal%NULL%2,                              Rachael%Overcash%NULL%2,                              Neggin%Mokhtari%NULL%2,                              Haleema%Saeed%NULL%2,                              Stacey%Gold%NULL%2,                              Tamika%Auguste%NULL%2,                              Muhammad-Usman%Mirza%NULL%2,                              Maria-Elena%Ruiz%NULL%2,                              Joeffrey J.%Chahine%NULL%4,                              Joeffrey J.%Chahine%NULL%0,                              Masashi%Waga%NULL%4,                              Masashi%Waga%NULL%0,                              Glenn%Wortmann%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Paul C.%Browne%NULL%1,                              Jennifer B.%Linfert%NULL%1,                              Emilio%Perez-Jorge%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jie%Yan%NULL%0,                              Juanjuan%Guo%NULL%2,                              Cuifang%Fan%NULL%1,                              Juan%Juan%NULL%1,                              Xuechen%Yu%NULL%2,                              Jiafu%Li%NULL%2,                              Ling%Feng%NULL%1,                              Chunyan%Li%NULL%1,                              Huijun%Chen%NULL%1,                              Yuan%Qiao%NULL%1,                              Di%Lei%NULL%1,                              Chen%Wang%NULL%3,                              Guoping%Xiong%NULL%1,                              Fengyi%Xiao%NULL%1,                              Wencong%He%NULL%1,                              Qiumei%Pang%NULL%3,                              Xiaoling%Hu%NULL%1,                              Suqing%Wang%NULL%1,                              Dunjin%Chen%NULL%1,                              Yuanzhen%Zhang%NULL%2,                              Liona C.%Poon%NULL%1,                              Huixia%Yang%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Xiaotong%Wang%NULL%3,                              Zhiqiang%Zhou%NULL%1,                              Jianping%Zhang%NULL%1,                              Fengfeng%Zhu%NULL%1,                              Yongyan%Tang%NULL%1,                              Xinghua%Shen%luckydrx@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Rong%Wen%wenxueqian_1111@163.com%1,                              Yue%Sun%101799@qdfe.com%1,                              Quan-Sheng%Xing%xingquansheng@qdfe.com%1]</t>
+  </si>
+  <si>
+    <t>[Xinggui%Liao%NULL%1,                              Huan%Yang%NULL%1,                              Junfeng%Kong%NULL%2,                              Junfeng%Kong%NULL%0,                              Hongbing%Yang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Liusheng%Hou%NULL%1,                              Mingxing%Li%NULL%1,                              Kai%Guo%NULL%1,                              Weijia%Wang%NULL%1,                              Binfei%Li%NULL%1,                              Jianwei%Li%NULL%2,                              Yong%Yuan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiali%Xiong%NULL%2,                              Hong%Wei%NULL%2,                              Hong%Wei%NULL%0,                              Zhihong%Zhang%NULL%1,                              Jing%Chang%NULL%1,                              Xiaopeng%Ma%NULL%1,                              Xiang%Gao%NULL%1,                              Qiang%Chen%qiangchen2015@sina.com%1,                              Qiumei%Pang%pqm19650930@sina.com%0,                              Qiumei%Pang%pqm19650930@sina.com%0]</t>
+  </si>
+  <si>
+    <t>[Zhoujie%Peng%NULL%2,                              Jianhui%Wang%NULL%1,                              Yunbo%Mo%NULL%1,                              Wei%Duan%NULL%1,                              Guangjun%Xiang%NULL%1,                              Ming%Yi%NULL%1,                              Lei%Bao%NULL%1,                              Yuan%Shi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Dawei%Lu%NULL%2,                              Lin%Sang%NULL%1,                              Shihua%Du%NULL%1,                              Tao%Li%NULL%2,                              Yange%Chang%NULL%1,                              Xiu‐An%Yang%yangxiuan07@mails.ucas.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Enrico M.%Ferrazzi%enrico.ferrazzi@unimi.it%0,                              Luigi%Frigerio%NULL%1,                              Irene%Cetin%NULL%1,                              Patrizia%Vergani%NULL%1,                              Arsenio%Spinillo%NULL%1,                              Federico%Prefumo%NULL%1,                              Edda%Pellegrini%NULL%1,                              Gianluigi%Gargantini%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Evangelia%Vlachodimitropoulou Koumoutsea%NULL%1,                              Alexandre J.%Vivanti%NULL%1,                              Nadine%Shehata%NULL%1,                              Alexandra%Benachi%NULL%1,                              Agnes%Le Gouez%NULL%1,                              Celine%Desconclois%NULL%1,                              Wendy%Whittle%NULL%1,                              John%Snelgrove%NULL%1,                              Ann Kinga%Malinowski%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lysien I.%Zambrano%NULL%1,                              Itzel Carolina%Fuentes-Barahona%NULL%2,                              Itzel Carolina%Fuentes-Barahona%NULL%0,                              Daysi Anabell%Bejarano-Torres%NULL%1,                              Carolina%Bustillo%NULL%2,                              Gloria%Gonzales%NULL%1,                              Gissela%Vallecillo-Chinchilla%NULL%1,                              Fredal Eduardo%Sanchez-Martínez%NULL%2,                              Fredal Eduardo%Sanchez-Martínez%NULL%0,                              Jorge Alberto%Valle-Reconco%NULL%1,                              Manuel%Sierra%NULL%2,                              Manuel%Sierra%NULL%0,                              D. Katterine%Bonilla-Aldana%NULL%2,                              D. Katterine%Bonilla-Aldana%NULL%0,                              Jaime A.%Cardona-Ospina%NULL%2,                              Jaime A.%Cardona-Ospina%NULL%0,                              Alfonso J.%Rodríguez-Morales%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Dong Hwan%Lee%NULL%4,                              Jihyang%Lee%NULL%6,                              Jihyang%Lee%NULL%0,                              Eunju%Kim%NULL%6,                              Eunju%Kim%NULL%0,                              Kyeongyoon%Woo%NULL%6,                              Kyeongyoon%Woo%NULL%0,                              Hak Youle%Park%NULL%6,                              Hak Youle%Park%NULL%0,                              Jihyun%An%NULL%6,                              Jihyun%An%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Parisa%Karami%NULL%1,                              Maliheh%Naghavi%NULL%1,                              Abdolamir%Feyzi%NULL%1,                              Mehdi%Aghamohammadi%NULL%1,                              Mohammad Sadegh%Novin%NULL%1,                              Ahmadreza%Mobaien%NULL%1,                              Mohamad%Qorbanisani%NULL%1,                              Aida%Karami%NULL%1,                              Amir Hossein%Norooznezhad%norooznezhad@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Belinda%Lowe%Belinda.lowe2@health.qld.gov.au%1,                              Benjamin%Bopp%NULL%2,                              Benjamin%Bopp%NULL%0]</t>
+  </si>
+  <si>
+    <t>[D.%González Romero%NULL%1,                              J.%Ocampo Pérez%NULL%1,                              L.%González Bautista%NULL%1,                              L.%Santana-Cabrera%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Maria Claudia%Alzamora%NULL%3,                              Tania%Paredes%NULL%4,                              Tania%Paredes%NULL%0,                              David%Caceres%NULL%2,                              Camille M.%Webb%NULL%2,                              Luis M.%Valdez%NULL%2,                              Mauricio%La Rosa%NULL%2]</t>
+  </si>
+  <si>
+    <t>[K. Aparna%Sharma%NULL%1,                              Rajesh%Kumari%NULL%1,                              Garima%Kachhawa%NULL%1,                              Anjolie%Chhabra%NULL%1,                              Ramesh%Agarwal%NULL%1,                              Akash%Sharma%NULL%1,                              Sunesh%Kumar%NULL%1,                              Neerja%Bhatla%neerja.bhatla07@gmail.com%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Novel coronavirus disease 2019 is rapidly spreading throughout the New York metropolitan area since its first reported case on March 1, 2020. The state is now the epicenter of coronavirus disease 2019 outbreak in the United States, with 84,735 cases reported as of April 2, 2020. We previously presented an early case series with 7 coronavirus disease 2019–positive pregnant patients, 2 of whom were diagnosed with coronavirus disease 2019 after an initial asymptomatic presentation.
+ We now describe a series of 43 test-positive cases of coronavirus disease 2019 presenting to an affiliated pair of New York City hospitals for more than 2 weeks, from March 13, 2020, to March 27, 2020. A total of 14 patients (32.6%) presented without any coronavirus disease 2019–associated viral symptoms and were identified after they developed symptoms during admission or after the implementation of universal testing for all obstetric admissions on March 22. Among them, 10 patients (71.4%) developed symptoms of coronavirus disease 2019 over the course of their delivery admission or early after postpartum discharge.
+ Of the other 29 patients (67.4%) who presented with symptomatic coronavirus disease 2019, 3 women ultimately required antenatal admission for viral symptoms, and another patient re-presented with worsening respiratory status requiring oxygen supplementation 6 days postpartum after a successful labor induction.
+ There were no confirmed cases of coronavirus disease 2019 detected in neonates upon initial testing on the first day of life.
+ Based on coronavirus disease 2019 disease severity characteristics by Wu and McGoogan, 37 women (86%) exhibited mild disease, 4 (9.3%) severe disease, and 2 (4.7%) critical disease; these percentages are similar to those described in nonpregnant adults with coronavirus disease 2019 (about 80% mild, 15% severe, and 5% critical disease).
+</t>
+  </si>
+  <si>
+    <t>[Noelle%Breslin%NULL%0, Caitlin%Baptiste%NULL%0, Cynthia%Gyamfi-Bannerman%NULL%0, Russell%Miller%NULL%0, Rebecca%Martinez%NULL%0, Kyra%Bernstein%NULL%0, Laurence%Ring%NULL%0, Ruth%Landau%NULL%0, Stephanie%Purisch%NULL%0, Alexander M.%Friedman%NULL%0, Karin%Fuchs%NULL%0, Desmond%Sutton%NULL%0, Maria%Andrikopoulou%NULL%0, Devon%Rupley%NULL%0, Jean-Ju%Sheen%NULL%0, Janice%Aubey%NULL%0, Noelia%Zork%NULL%0, Leslie%Moroz%NULL%0, Mirella%Mourad%NULL%0, Ronald%Wapner%NULL%0, Lynn L.%Simpson%NULL%0, Mary E.%D’Alton%NULL%0, Dena%Goffman%NULL%0]</t>
+  </si>
+  <si>
+    <t>Elsevier Inc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">At our institution, 2 of the initial 7 pregnant patients with confirmed coronavirus disease 2019 severe infection (28.6%; 95% CI, 8.2%–64.1%) developed cardiac dysfunction with moderately reduced left ventricular ejection fractions of 40%–45% and hypokinesis.
+ Viral myocarditis and cardiomyopathy have also been reported in nonpregnant coronavirus disease 2019 patients.
+ A case series of nonpregnant patients with coronavirus disease 2019 found that 33% of those in intensive care developed cardiomyopathy.
+ More data are needed to ascertain the incidence of cardiomyopathy from coronavirus disease 2019 in pregnancy, in all pregnant women with coronavirus disease 2019, and those with severe disease (eg, pneumonia).
+ We suggest an echocardiogram in pregnant women with coronavirus disease 2019 pneumonia, in particular those necessitating oxygen, or those who are critically ill, and we recommend the use of handheld, point-of-care devices where possible to minimize contamination of staff and traditional large echocardiogram machines.
+</t>
+  </si>
+  <si>
+    <t>[Alexander%Juusela%NULL%0, Munir%Nazir%NULL%1, Martin%Gimovsky%NULL%1]</t>
+  </si>
+  <si>
+    <t>[William S.%Vintzileos%NULL%0, Jolene%Muscat%NULL%2, Jolene%Muscat%NULL%0, Eva%Hoffmann%NULL%1, Nicole S.%John%NULL%1, Rosanne%Vertichio%NULL%1, Anthony M.%Vintzileos%NULL%1, Duc%Vo%NULL%2, Duc%Vo%NULL%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Since the emergence of a novel coronavirus (severe acute respiratory syndrome coronavirus 2) in Wuhan, China, at the end of December 2019, coronavirus disease 2019 has been associated with severe morbidity and mortality and has left world governments, healthcare systems, and providers caring for vulnerable populations, such as pregnant women, wrestling with the optimal management strategy.
+ Unique physiologic and ethical considerations negate a one-size-fits-all approach when caring for critically ill pregnant women with coronavirus disease 2019, and few resources exist to guide the multidisciplinary team through decisions regarding optimal maternal-fetal surveillance, intensive care procedures, and delivery timing.
+ We present a case of rapid clinical decompensation and development of severe acute respiratory distress syndrome in a woman at 31 weeks’ gestation to highlight these unique considerations and present an algorithmic approach to the diagnosis and management of the disease.
+</t>
+  </si>
+  <si>
+    <t>[William T.%Schnettler%NULL%0, Yousef%Al Ahwel%NULL%2, Anju%Suhag%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Sara N.%Iqbal%NULL%0, Rachael%Overcash%NULL%2, Neggin%Mokhtari%NULL%2, Haleema%Saeed%NULL%2, Stacey%Gold%NULL%2, Tamika%Auguste%NULL%2, Muhammad-Usman%Mirza%NULL%2, Maria-Elena%Ruiz%NULL%2, Joeffrey J.%Chahine%NULL%4, Joeffrey J.%Chahine%NULL%0, Masashi%Waga%NULL%4, Masashi%Waga%NULL%0, Glenn%Wortmann%NULL%2]</t>
+  </si>
+  <si>
+    <t>Massachusetts Medical Society</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Novel coronavirus disease 2019 (COVID-19) infection occurring during pregnancy is associated with an increased risk of preterm delivery.
+ This case report describes successful treatment of preterm labor during acute COVID-19 infection.
+ Standard treatment for preterm labor may allow patients with acute COVID-19 infection to recover without the need for preterm delivery.
+</t>
+  </si>
+  <si>
+    <t>[Paul C.%Browne%NULL%0, Jennifer B.%Linfert%NULL%1, Emilio%Perez-Jorge%NULL%1]</t>
+  </si>
+  <si>
+    <t>Thieme Medical Publishers</t>
+  </si>
+  <si>
+    <t>[Jie%Yan%NULL%0, Juanjuan%Guo%NULL%0, Cuifang%Fan%NULL%0, Juan%Juan%NULL%0, Xuechen%Yu%NULL%0, Jiafu%Li%NULL%0, Ling%Feng%NULL%0, Chunyan%Li%NULL%0, Huijun%Chen%NULL%0, Yuan%Qiao%NULL%0, Di%Lei%NULL%0, Chen%Wang%NULL%0, Guoping%Xiong%NULL%0, Fengyi%Xiao%NULL%0, Wencong%He%NULL%0, Qiumei%Pang%NULL%0, Xiaoling%Hu%NULL%0, Suqing%Wang%NULL%0, Dunjin%Chen%NULL%0, Yuanzhen%Zhang%NULL%0, Liona C.%Poon%NULL%0, Huixia%Yang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaotong%Wang%NULL%0, Zhiqiang%Zhou%NULL%3, Jianping%Zhang%NULL%3, Fengfeng%Zhu%NULL%3, Yongyan%Tang%NULL%3, Xinghua%Shen%luckydrx@163.com%3]</t>
+  </si>
+  <si>
+    <t>Oxford University Press</t>
+  </si>
+  <si>
+    <t>[Rong%Wen%wenxueqian_1111@163.com%0, Yue%Sun%101799@qdfe.com%1, Quan-Sheng%Xing%xingquansheng@qdfe.com%1]</t>
+  </si>
+  <si>
+    <t>Taiwan Society of Microbiology. Published by Elsevier Taiwan LLC.</t>
+  </si>
+  <si>
+    <t>[Xinggui%Liao%NULL%0, Huan%Yang%NULL%1, Junfeng%Kong%NULL%2, Junfeng%Kong%NULL%0, Hongbing%Yang%NULL%1]</t>
+  </si>
+  <si>
+    <t>Galenos Publishing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The novel coronavirus (COVID-19) has become a global pandemic outbreak.
+ Patients with COVID-19 are prone to progress to acute respiratory distress syndrome (ARDS), and even severe ARDS with ineffective mechanical ventilation, and an extremely high mortality.
+ Extracorporeal membrane oxygenation (ECMO) provides effective respiratory support and saves time for the treatment of severe COVID-19. The present study reports that a 31-year-old pregnant female infected by COVID-19, who suffered from fever, dyspnea, and rapid ARDS.
+ The patient's pulmonary function gradually recovered by combining early mechanical ventilation and ECMO, and finally, this patient was successfully weaned from ECMO and the ventilator.
+ No fibrosis lesions were found in the chest CT, and the patient recovered very well after leaving from the hospital for one month.
+</t>
+  </si>
+  <si>
+    <t>[Liusheng%Hou%NULL%0, Mingxing%Li%NULL%1, Kai%Guo%NULL%1, Weijia%Wang%NULL%1, Binfei%Li%NULL%1, Jianwei%Li%NULL%2, Yong%Yuan%NULL%1]</t>
+  </si>
+  <si>
+    <t>The Authors. Published by Elsevier Inc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The outbreak of the infection of 2019 novel coronavirus disease (COVID­‐19) has become a challenging public health threat worldwide.
+ Limited data are available for pregnant women with COVID‐19 pneumonia.
+ We report a case of a convalescing pregnant woman diagnosed with COVID‐19 infection 37 days before delivery in the third trimester.
+ A live birth without severe acute respiratory syndrome coronavirus 2 (SARS‐CoV‐2) infection was performed successfully via the vagina.
+ The findings from our case indicate that there is no intrauterine transmission in this woman who developed COVID‐19 pneumonia in late pregnancy.
+</t>
+  </si>
+  <si>
+    <t>[Xiali%Xiong%NULL%0, Hong%Wei%NULL%4, Hong%Wei%NULL%0, Zhihong%Zhang%NULL%2, Jing%Chang%NULL%2, Xiaopeng%Ma%NULL%2, Xiang%Gao%NULL%2, Qiang%Chen%qiangchen2015@sina.com%2, Qiumei%Pang%pqm19650930@sina.com%0, Qiumei%Pang%pqm19650930@sina.com%0]</t>
+  </si>
+  <si>
+    <t>John Wiley and Sons Inc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As the 2019 novel coronavirus disease (COVID-19) rapidly spread across China and to more than 70 countries, an increasing number of pregnant women were affected.
+ The vertical transmission potential of severe acute respiratory syndrome coronavirus 2 (SARS-CoV-2) is of great concern to the obstetrics, neonatologists, and public health agencies.
+ Though some studies indicated the risk of vertical transmission is low, few cases have been reported with comprehensive serial tests from multiple specimens.
+ In this case, a female preterm infant was born to a mother with confirmed COVID-19. She presented with mild respiratory distress and received general management and a short period of nasal continuous positive airway pressure support.
+ During her stay at the hospital, a series of SARS-CoV-2 nucleic test from her throat and anal swab, serum, bronchoalveolar lavage fluid, and urine were negative.
+ The nucleic acid test from the mother's amniotic fluid, vaginal secretions, cord blood, placenta, serum, anal swab, and breast milk were also negative.
+ The most comprehensively tested case reported to date confirmed that the vertical transmission of COVID is unlikely, but still, more evidence is needed.
+</t>
+  </si>
+  <si>
+    <t>[Zhoujie%Peng%NULL%0, Jianhui%Wang%NULL%2, Yunbo%Mo%NULL%2, Wei%Duan%NULL%0, Guangjun%Xiang%NULL%2, Ming%Yi%NULL%2, Lei%Bao%NULL%2, Yuan%Shi%NULL%0]</t>
+  </si>
+  <si>
+    <t>The Authors. Published by Elsevier Ltd on behalf of King Saud Bin Abdulaziz University for Health Sciences.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This study is to investigate the clinical characteristics of late pregnancy with asymptomatic 2019 novel coronavirus disease (COVID‐19) infection, evaluate the outcome of maternal and fetal prognosis, and identify the evidence of intrauterine vertical transmission.
+ A 22‐years‐old pregnant woman with asymptomatic COVID‐19 infection who was admitted to our hospital on 11 February 2020 was enrolled in this study.
+ Clinical data including laboratory test results and chest computed tomography (CT) scanning were collected and reviewed.
+ Diagnosis of late pregnancy with asymptomatic COVID‐19 infection was made.
+ Lumbar anesthesia for cesarean section was performed and a female baby was delivered uneventfully, with the Apgar score of 9 to 10 points.
+ Three times of COVID‐19 nucleic acid test for the baby was negative after delivery.
+ The puerpera returned to normal after the operation and two times of throat swab COVID‐19 nucleic acid test were all negative after antiviral therapy.
+ We reported an asymptomatic COVID‐19 pregnant woman with detailed clinical information and our result indicated that for late pregnant women with asymptomatic COVID‐19 infection, there might be no intrauterine infection caused by vertical transmission.
+</t>
+  </si>
+  <si>
+    <t>[Dawei%Lu%NULL%0, Lin%Sang%NULL%2, Shihua%Du%NULL%2, Tao%Li%NULL%0, Yange%Chang%NULL%2, Xiu‐An%Yang%yangxiuan07@mails.ucas.edu.cn%2]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">From February 24, 2020, a COVID‐19 obstetric task force was structured to deliver management recommendations for obstetric care.
+ From March 1, 2020, six COVID‐19 hubs and their spokes were designated.
+ An interim analysis of cases occurring in or transferred to these hubs was performed on March 20, 2020 and recommendations were released on March 24, 2020. The vision of this strict organization was to centralize patients in high‐risk maternity centers in order to concentrate human resources and personal protective equipment (PPE), dedicate protected areas of these major hospitals, and centralize clinical multidisciplinary experience with this disease.
+ All maternity hospitals were informed to provide a protected labor and delivery room for nontransferable patients in advanced labor.
+ A pre‐triage based on temperature and 14 other items was developed in order to screen suspected patients in all hospitals to be tested with nasopharyngeal swabs.
+ Obstetric outpatient facilities were instructed to maintain scheduled pregnancy screening as per Italian guidelines, and to provide pre‐triage screening and surgical masks for personnel and patients for pre‐triage‐negative patients.
+ Forty‐two cases were recorded in the first 20 days of hub and spoke organization.
+ The clinical presentation was interstitial pneumonia in 20 women.
+ Of these, seven required respiratory support and eventually recovered.
+ Two premature labors occurred.
+</t>
+  </si>
+  <si>
+    <t>[Enrico M.%Ferrazzi%enrico.ferrazzi@unimi.it%0, Luigi%Frigerio%NULL%0, Irene%Cetin%NULL%0, Patrizia%Vergani%NULL%0, Arsenio%Spinillo%NULL%0, Federico%Prefumo%NULL%0, Edda%Pellegrini%NULL%0, Gianluigi%Gargantini%NULL%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We present a putative link between maternal COVID‐19 infection in the peripartum period and rapid maternal deterioration with early organ dysfunction and coagulopathy.
+ The current pandemic with SARS‐CoV‐2 has already resulted in high numbers of critically ill patients and deaths in the non‐pregnant population, mainly due to respiratory failure.
+ During viral outbreaks, pregnancy poses a uniquely increased risk to women due to changes to immune function, alongside physiological adaptive alterations, such as increased oxygen consumption and edema of the respiratory tract.
+ The laboratory derangements may be reminiscent of HELLP (hemolysis, elevated liver enzymes, low platelet count) syndrome, and thus knowledge of the COVID‐19 relationship is paramount for appropriate diagnosis and management.
+ In addition to routine measurements of D‐dimers, prothrombin time, and platelet count in all patients presenting with COVID‐19 as per International Society on Thrombosis and Haemostasis (ISTH) guidance, monitoring of activated partial thromboplastin time (APTT) and fibrinogen levels should be considered in pregnancy, as highlighted in this report.
+ These investigations in SARS‐CoV‐2‐positive pregnant women are vital, as their derangement may signal a more severe COVID‐19 infection, and may warrant pre‐emptive admission and consideration of delivery to achieve maternal stabilization.
+</t>
+  </si>
+  <si>
+    <t>[Evangelia%Vlachodimitropoulou Koumoutsea%NULL%0, Alexandre J.%Vivanti%NULL%1, Nadine%Shehata%NULL%1, Alexandra%Benachi%NULL%1, Agnes%Le Gouez%NULL%1, Celine%Desconclois%NULL%1, Wendy%Whittle%NULL%1, John%Snelgrove%NULL%1, Ann Kinga%Malinowski%NULL%1]</t>
+  </si>
+  <si>
+    <t>International Society on Thrombosis and Haemostasis. Published by Elsevier Inc.</t>
+  </si>
+  <si>
+    <t>[Lysien I.%Zambrano%NULL%0, Itzel Carolina%Fuentes-Barahona%NULL%2, Itzel Carolina%Fuentes-Barahona%NULL%0, Daysi Anabell%Bejarano-Torres%NULL%1, Carolina%Bustillo%NULL%2, Gloria%Gonzales%NULL%1, Gissela%Vallecillo-Chinchilla%NULL%1, Fredal Eduardo%Sanchez-Martínez%NULL%2, Fredal Eduardo%Sanchez-Martínez%NULL%0, Jorge Alberto%Valle-Reconco%NULL%1, Manuel%Sierra%NULL%2, Manuel%Sierra%NULL%0, D. Katterine%Bonilla-Aldana%NULL%0, D. Katterine%Bonilla-Aldana%NULL%0, Jaime A.%Cardona-Ospina%NULL%0, Jaime A.%Cardona-Ospina%NULL%0, Alfonso J.%Rodríguez-Morales%NULL%1]</t>
+  </si>
+  <si>
+    <t>Elsevier Ltd.</t>
+  </si>
+  <si>
+    <t>[Dong Hwan%Lee%NULL%0, Jihyang%Lee%NULL%8, Jihyang%Lee%NULL%0, Eunju%Kim%NULL%8, Eunju%Kim%NULL%0, Kyeongyoon%Woo%NULL%8, Kyeongyoon%Woo%NULL%0, Hak Youle%Park%NULL%8, Hak Youle%Park%NULL%0, Jihyun%An%NULL%8, Jihyun%An%NULL%0]</t>
+  </si>
+  <si>
+    <t>Korean Society of Anesthesiologists</t>
+  </si>
+  <si>
+    <t>[Parisa%Karami%NULL%0, Maliheh%Naghavi%NULL%1, Abdolamir%Feyzi%NULL%1, Mehdi%Aghamohammadi%NULL%1, Mohammad Sadegh%Novin%NULL%1, Ahmadreza%Mobaien%NULL%1, Mohamad%Qorbanisani%NULL%1, Aida%Karami%NULL%1, Amir Hossein%Norooznezhad%norooznezhad@gmail.com%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The novel coronavirus termed SARS‐CoV‐2 (COVID‐19) is a major public health challenge.
+ Many maternity units around the country are currently considering management protocols for these patients.
+ We report a case from a tertiary Australian hospital describing an uncomplicated vaginal birth in a COVID‐19 positive mother.
+ To our knowledge this is also the first case described of a mother with COVID‐19 not separated from her infant.
+ Management provided supports the current Royal College of Obstetricians and Gynaecologists and World Health Organization guidelines suggesting that it is possible to consider rooming in post‐delivery for COVID‐19 positive parents.
+ Encouragement of breastfeeding appears possible and safe when viral precautions are observed.
+</t>
+  </si>
+  <si>
+    <t>[Belinda%Lowe%Belinda.lowe2@health.qld.gov.au%0, Benjamin%Bopp%NULL%2, Benjamin%Bopp%NULL%0]</t>
+  </si>
+  <si>
+    <t>[D.%González Romero%NULL%0, J.%Ocampo Pérez%NULL%1, L.%González Bautista%NULL%1, L.%Santana-Cabrera%NULL%1]</t>
+  </si>
+  <si>
+    <t>Elsevier España, S.L.U. and Sociedad Española de Medicina Interna (SEMI).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There are few cases of pregnant women with novel corona virus 2019 (COVID-19) in the literature, most of them with a mild illness course.
+ There is limited evidence about in utero infection and early positive neonatal testing.
+ A 41-year-old G3P2 with a history of previous cesarean deliveries and diabetes mellitus presented with a 4-day history of malaise, low-grade fever, and progressive shortness of breath.
+ A nasopharyngeal swab was positive for COVID-19, COVID-19 serology was negative.
+ The patient developed respiratory failure requiring mechanical ventilation on day 5 of disease onset.
+ The patient underwent a cesarean delivery, and neonatal isolation was implemented immediately after birth, without delayed cord clamping or skin-to-skin contact.
+ The neonatal nasopharyngeal swab, 16 hours after delivery, was positive for severe acute respiratory syndrome–coronavirus 2 (SARS-CoV-2) real-time polymerase chain reaction (RT-PCR), and immunoglobulin (Ig)-M and IgG for SARS-CoV-2 were negative.
+ Maternal IgM and IgG were positive on postpartum day 4 (day 9 after symptom onset).
+ We report a severe presentation of COVID-19 during pregnancy.
+ To our knowledge, this is the earliest reported positive PCR in the neonate, raising the concern for vertical transmission.
+ We suggest pregnant women should be considered as a high-risk group and minimize exposures for these reasons.
+</t>
+  </si>
+  <si>
+    <t>[Maria Claudia%Alzamora%NULL%0, Tania%Paredes%NULL%6, Tania%Paredes%NULL%0, David%Caceres%NULL%3, Camille M.%Webb%NULL%3, Luis M.%Valdez%NULL%3, Mauricio%La Rosa%NULL%3]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Successful pregnancy management in a patient with confirmed COVID‐19 requires a multidisciplinary team approach and facility preparedness, especially during the pandemic.
+</t>
+  </si>
+  <si>
+    <t>[K. Aparna%Sharma%NULL%0, Rajesh%Kumari%NULL%1, Garima%Kachhawa%NULL%1, Anjolie%Chhabra%NULL%1, Ramesh%Agarwal%NULL%1, Akash%Sharma%NULL%1, Sunesh%Kumar%NULL%1, Neerja%Bhatla%neerja.bhatla07@gmail.com%1]</t>
   </si>
 </sst>
 </file>
@@ -2731,10 +3091,10 @@
         <v>43</v>
       </c>
       <c r="D2" t="s">
-        <v>44</v>
+        <v>797</v>
       </c>
       <c r="E2" t="s">
-        <v>725</v>
+        <v>798</v>
       </c>
       <c r="F2" t="s">
         <v>45</v>
@@ -2746,10 +3106,10 @@
         <v>47</v>
       </c>
       <c r="I2" t="s">
-        <v>515</v>
+        <v>52</v>
       </c>
       <c r="J2" t="s">
-        <v>52</v>
+        <v>799</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -2763,10 +3123,10 @@
         <v>48</v>
       </c>
       <c r="D3" t="s">
-        <v>49</v>
+        <v>800</v>
       </c>
       <c r="E3" t="s">
-        <v>726</v>
+        <v>801</v>
       </c>
       <c r="F3" t="s">
         <v>50</v>
@@ -2778,10 +3138,10 @@
         <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>515</v>
+        <v>52</v>
       </c>
       <c r="J3" t="s">
-        <v>52</v>
+        <v>799</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -2798,7 +3158,7 @@
         <v>52</v>
       </c>
       <c r="E4" t="s">
-        <v>727</v>
+        <v>802</v>
       </c>
       <c r="F4" t="s">
         <v>53</v>
@@ -2810,10 +3170,10 @@
         <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>515</v>
+        <v>52</v>
       </c>
       <c r="J4" t="s">
-        <v>52</v>
+        <v>799</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -2827,10 +3187,10 @@
         <v>54</v>
       </c>
       <c r="D5" t="s">
-        <v>55</v>
+        <v>803</v>
       </c>
       <c r="E5" t="s">
-        <v>728</v>
+        <v>804</v>
       </c>
       <c r="F5" t="s">
         <v>56</v>
@@ -2842,10 +3202,10 @@
         <v>57</v>
       </c>
       <c r="I5" t="s">
-        <v>515</v>
+        <v>52</v>
       </c>
       <c r="J5" t="s">
-        <v>52</v>
+        <v>799</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -2862,7 +3222,7 @@
         <v>52</v>
       </c>
       <c r="E6" t="s">
-        <v>729</v>
+        <v>805</v>
       </c>
       <c r="F6" t="s">
         <v>59</v>
@@ -2874,10 +3234,10 @@
         <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>520</v>
+        <v>52</v>
       </c>
       <c r="J6" t="s">
-        <v>52</v>
+        <v>806</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -2891,10 +3251,10 @@
         <v>60</v>
       </c>
       <c r="D7" t="s">
-        <v>61</v>
+        <v>807</v>
       </c>
       <c r="E7" t="s">
-        <v>730</v>
+        <v>808</v>
       </c>
       <c r="F7" t="s">
         <v>62</v>
@@ -2906,10 +3266,10 @@
         <v>63</v>
       </c>
       <c r="I7" t="s">
-        <v>520</v>
+        <v>52</v>
       </c>
       <c r="J7" t="s">
-        <v>52</v>
+        <v>809</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -2926,7 +3286,7 @@
         <v>65</v>
       </c>
       <c r="E8" t="s">
-        <v>731</v>
+        <v>810</v>
       </c>
       <c r="F8" t="s">
         <v>66</v>
@@ -2938,10 +3298,10 @@
         <v>67</v>
       </c>
       <c r="I8" t="s">
-        <v>515</v>
+        <v>52</v>
       </c>
       <c r="J8" t="s">
-        <v>52</v>
+        <v>799</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -2990,7 +3350,7 @@
         <v>69</v>
       </c>
       <c r="E10" t="s">
-        <v>732</v>
+        <v>811</v>
       </c>
       <c r="F10" t="s">
         <v>70</v>
@@ -3002,10 +3362,10 @@
         <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>520</v>
+        <v>52</v>
       </c>
       <c r="J10" t="s">
-        <v>52</v>
+        <v>812</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -3022,7 +3382,7 @@
         <v>52</v>
       </c>
       <c r="E11" t="s">
-        <v>733</v>
+        <v>813</v>
       </c>
       <c r="F11" t="s">
         <v>72</v>
@@ -3034,10 +3394,10 @@
         <v>73</v>
       </c>
       <c r="I11" t="s">
-        <v>515</v>
+        <v>52</v>
       </c>
       <c r="J11" t="s">
-        <v>52</v>
+        <v>814</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -3054,7 +3414,7 @@
         <v>52</v>
       </c>
       <c r="E12" t="s">
-        <v>734</v>
+        <v>815</v>
       </c>
       <c r="F12" t="s">
         <v>75</v>
@@ -3066,10 +3426,10 @@
         <v>76</v>
       </c>
       <c r="I12" t="s">
-        <v>520</v>
+        <v>52</v>
       </c>
       <c r="J12" t="s">
-        <v>52</v>
+        <v>816</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -3083,10 +3443,10 @@
         <v>77</v>
       </c>
       <c r="D13" t="s">
-        <v>78</v>
+        <v>817</v>
       </c>
       <c r="E13" t="s">
-        <v>735</v>
+        <v>818</v>
       </c>
       <c r="F13" t="s">
         <v>79</v>
@@ -3098,10 +3458,10 @@
         <v>80</v>
       </c>
       <c r="I13" t="s">
-        <v>515</v>
+        <v>52</v>
       </c>
       <c r="J13" t="s">
-        <v>52</v>
+        <v>819</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -3115,10 +3475,10 @@
         <v>81</v>
       </c>
       <c r="D14" t="s">
-        <v>82</v>
+        <v>820</v>
       </c>
       <c r="E14" t="s">
-        <v>736</v>
+        <v>821</v>
       </c>
       <c r="F14" t="s">
         <v>83</v>
@@ -3130,10 +3490,10 @@
         <v>84</v>
       </c>
       <c r="I14" t="s">
-        <v>520</v>
+        <v>52</v>
       </c>
       <c r="J14" t="s">
-        <v>52</v>
+        <v>822</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -3147,10 +3507,10 @@
         <v>85</v>
       </c>
       <c r="D15" t="s">
-        <v>86</v>
+        <v>823</v>
       </c>
       <c r="E15" t="s">
-        <v>737</v>
+        <v>824</v>
       </c>
       <c r="F15" t="s">
         <v>87</v>
@@ -3162,10 +3522,10 @@
         <v>88</v>
       </c>
       <c r="I15" t="s">
-        <v>515</v>
+        <v>52</v>
       </c>
       <c r="J15" t="s">
-        <v>52</v>
+        <v>825</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -3179,10 +3539,10 @@
         <v>89</v>
       </c>
       <c r="D16" t="s">
-        <v>90</v>
+        <v>826</v>
       </c>
       <c r="E16" t="s">
-        <v>738</v>
+        <v>827</v>
       </c>
       <c r="F16" t="s">
         <v>91</v>
@@ -3194,10 +3554,10 @@
         <v>92</v>
       </c>
       <c r="I16" t="s">
-        <v>520</v>
+        <v>52</v>
       </c>
       <c r="J16" t="s">
-        <v>52</v>
+        <v>822</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -3211,10 +3571,10 @@
         <v>93</v>
       </c>
       <c r="D17" t="s">
-        <v>94</v>
+        <v>828</v>
       </c>
       <c r="E17" t="s">
-        <v>739</v>
+        <v>829</v>
       </c>
       <c r="F17" t="s">
         <v>95</v>
@@ -3226,10 +3586,10 @@
         <v>96</v>
       </c>
       <c r="I17" t="s">
-        <v>520</v>
+        <v>52</v>
       </c>
       <c r="J17" t="s">
-        <v>52</v>
+        <v>822</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
@@ -3240,22 +3600,22 @@
         <v>43922</v>
       </c>
       <c r="C18" t="s">
-        <v>711</v>
+        <v>35</v>
       </c>
       <c r="D18" t="s">
-        <v>740</v>
+        <v>36</v>
       </c>
       <c r="E18" t="s">
-        <v>713</v>
+        <v>39</v>
       </c>
       <c r="F18" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="G18" t="s">
-        <v>714</v>
+        <v>41</v>
       </c>
       <c r="H18" t="s">
-        <v>96</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s">
         <v>52</v>
@@ -3275,10 +3635,10 @@
         <v>97</v>
       </c>
       <c r="D19" t="s">
-        <v>98</v>
+        <v>830</v>
       </c>
       <c r="E19" t="s">
-        <v>741</v>
+        <v>831</v>
       </c>
       <c r="F19" t="s">
         <v>99</v>
@@ -3290,10 +3650,10 @@
         <v>100</v>
       </c>
       <c r="I19" t="s">
-        <v>515</v>
+        <v>52</v>
       </c>
       <c r="J19" t="s">
-        <v>52</v>
+        <v>832</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
@@ -3310,7 +3670,7 @@
         <v>52</v>
       </c>
       <c r="E20" t="s">
-        <v>742</v>
+        <v>833</v>
       </c>
       <c r="F20" t="s">
         <v>102</v>
@@ -3322,10 +3682,10 @@
         <v>103</v>
       </c>
       <c r="I20" t="s">
-        <v>515</v>
+        <v>52</v>
       </c>
       <c r="J20" t="s">
-        <v>52</v>
+        <v>834</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
@@ -3342,7 +3702,7 @@
         <v>105</v>
       </c>
       <c r="E21" t="s">
-        <v>743</v>
+        <v>835</v>
       </c>
       <c r="F21" t="s">
         <v>106</v>
@@ -3354,10 +3714,10 @@
         <v>107</v>
       </c>
       <c r="I21" t="s">
-        <v>520</v>
+        <v>52</v>
       </c>
       <c r="J21" t="s">
-        <v>52</v>
+        <v>836</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
@@ -3368,28 +3728,28 @@
         <v>44013</v>
       </c>
       <c r="C22" t="s">
-        <v>534</v>
+        <v>35</v>
       </c>
       <c r="D22" t="s">
         <v>36</v>
       </c>
       <c r="E22" t="s">
-        <v>744</v>
+        <v>39</v>
       </c>
       <c r="F22" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="G22" t="s">
-        <v>536</v>
+        <v>41</v>
       </c>
       <c r="H22" t="s">
-        <v>537</v>
+        <v>47</v>
       </c>
       <c r="I22" t="s">
         <v>52</v>
       </c>
       <c r="J22" t="s">
-        <v>590</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
@@ -3400,25 +3760,25 @@
         <v>43983</v>
       </c>
       <c r="C23" t="s">
-        <v>124</v>
+        <v>35</v>
       </c>
       <c r="D23" t="s">
-        <v>125</v>
+        <v>36</v>
       </c>
       <c r="E23" t="s">
-        <v>745</v>
+        <v>39</v>
       </c>
       <c r="F23" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="G23" t="s">
-        <v>172</v>
+        <v>41</v>
       </c>
       <c r="H23" t="s">
         <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>539</v>
+        <v>52</v>
       </c>
       <c r="J23" t="s">
         <v>52</v>
@@ -3438,7 +3798,7 @@
         <v>52</v>
       </c>
       <c r="E24" t="s">
-        <v>746</v>
+        <v>837</v>
       </c>
       <c r="F24" t="s">
         <v>109</v>
@@ -3450,10 +3810,10 @@
         <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>515</v>
+        <v>52</v>
       </c>
       <c r="J24" t="s">
-        <v>52</v>
+        <v>834</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
@@ -3467,10 +3827,10 @@
         <v>110</v>
       </c>
       <c r="D25" t="s">
-        <v>111</v>
+        <v>838</v>
       </c>
       <c r="E25" t="s">
-        <v>747</v>
+        <v>839</v>
       </c>
       <c r="F25" t="s">
         <v>112</v>
@@ -3482,10 +3842,10 @@
         <v>113</v>
       </c>
       <c r="I25" t="s">
-        <v>520</v>
+        <v>52</v>
       </c>
       <c r="J25" t="s">
-        <v>52</v>
+        <v>822</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
@@ -3502,7 +3862,7 @@
         <v>52</v>
       </c>
       <c r="E26" t="s">
-        <v>748</v>
+        <v>840</v>
       </c>
       <c r="F26" t="s">
         <v>115</v>
@@ -3514,10 +3874,10 @@
         <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>515</v>
+        <v>52</v>
       </c>
       <c r="J26" t="s">
-        <v>52</v>
+        <v>841</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
@@ -3531,10 +3891,10 @@
         <v>116</v>
       </c>
       <c r="D27" t="s">
-        <v>117</v>
+        <v>842</v>
       </c>
       <c r="E27" t="s">
-        <v>749</v>
+        <v>843</v>
       </c>
       <c r="F27" t="s">
         <v>118</v>
@@ -3546,10 +3906,10 @@
         <v>84</v>
       </c>
       <c r="I27" t="s">
-        <v>520</v>
+        <v>52</v>
       </c>
       <c r="J27" t="s">
-        <v>52</v>
+        <v>809</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
@@ -3563,10 +3923,10 @@
         <v>119</v>
       </c>
       <c r="D28" t="s">
-        <v>120</v>
+        <v>844</v>
       </c>
       <c r="E28" t="s">
-        <v>750</v>
+        <v>845</v>
       </c>
       <c r="F28" t="s">
         <v>121</v>
@@ -3578,10 +3938,10 @@
         <v>122</v>
       </c>
       <c r="I28" t="s">
-        <v>520</v>
+        <v>52</v>
       </c>
       <c r="J28" t="s">
-        <v>52</v>
+        <v>822</v>
       </c>
     </row>
   </sheetData>
